--- a/data/trans_orig/P71-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A593F6D-A343-4525-B7D9-605C0CB8FC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEB890D-9412-4D42-853F-3A908F60588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C07222C2-30F3-4E41-8211-EE4A90509314}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27EE495E-3B45-4408-8151-7626BB635072}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,2335 +80,2335 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Con facilidad</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna facilidad</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna dificultad</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>Con dificultad</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>Con mucha dificultad</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Con facilidad</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna facilidad</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2015 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna dificultad</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>Con dificultad</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>Con mucha dificultad</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2015 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>3,61%</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86ABE66-5CDA-4F49-BE7B-8C48852CDF39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C0EAA-D98C-4926-9460-9E564EBC67F1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3321,10 +3321,10 @@
         <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -3333,13 +3333,13 @@
         <v>23320</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3354,13 @@
         <v>180473</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -3369,13 +3369,13 @@
         <v>141503</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -3384,10 +3384,10 @@
         <v>321976</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>88</v>
@@ -3426,7 +3426,7 @@
         <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>1142</v>
@@ -3435,13 +3435,13 @@
         <v>1163375</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,10 +3456,10 @@
         <v>590606</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>99</v>
@@ -3540,10 +3540,10 @@
         <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3558,13 @@
         <v>73169</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3573,13 +3573,13 @@
         <v>135924</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -3588,10 +3588,10 @@
         <v>209093</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>122</v>
@@ -3636,7 +3636,7 @@
         <v>3158</v>
       </c>
       <c r="N17" s="7">
-        <v>3235750</v>
+        <v>3235751</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -3683,7 +3683,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3692,13 +3692,13 @@
         <v>31586</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3713,13 @@
         <v>160653</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3728,13 +3728,13 @@
         <v>120134</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -3743,13 +3743,13 @@
         <v>280787</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3764,13 @@
         <v>214908</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -3779,13 +3779,13 @@
         <v>191645</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -3794,13 +3794,13 @@
         <v>406553</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3815,13 @@
         <v>113649</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -3830,10 +3830,10 @@
         <v>89569</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>155</v>
@@ -3881,13 +3881,13 @@
         <v>33959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3896,13 +3896,13 @@
         <v>61565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3917,13 @@
         <v>10066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3932,13 +3932,13 @@
         <v>22555</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -3947,13 +3947,13 @@
         <v>32622</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4021,13 @@
         <v>35519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -4036,10 +4036,10 @@
         <v>23055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>181</v>
@@ -4054,10 +4054,10 @@
         <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,10 +4228,10 @@
         <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>531</v>
@@ -4240,13 +4240,13 @@
         <v>551844</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>940</v>
@@ -4255,13 +4255,13 @@
         <v>962433</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4276,13 @@
         <v>173552</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>354</v>
@@ -4291,13 +4291,13 @@
         <v>370489</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>519</v>
@@ -4306,13 +4306,13 @@
         <v>544042</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BB9A78-3C11-4151-BB15-67EA6793DC8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85078975-DAB0-4D68-8572-69B98CBF69EB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4404,7 +4404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4511,13 +4511,13 @@
         <v>3080</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4526,13 +4526,13 @@
         <v>6214</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4541,13 +4541,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4628,13 @@
         <v>321765</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>500</v>
@@ -4643,13 +4643,13 @@
         <v>535314</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4664,13 @@
         <v>281295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -4679,13 +4679,13 @@
         <v>421656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>658</v>
@@ -4694,13 +4694,13 @@
         <v>702952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4715,13 @@
         <v>219650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
@@ -4730,13 +4730,13 @@
         <v>282123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>463</v>
@@ -4745,13 +4745,13 @@
         <v>501773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4766,13 @@
         <v>174370</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>187</v>
@@ -4781,13 +4781,13 @@
         <v>201362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>352</v>
@@ -4796,13 +4796,13 @@
         <v>375732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4870,13 @@
         <v>15562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4885,13 +4885,13 @@
         <v>5279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4927,7 +4927,7 @@
         <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -4939,10 +4939,10 @@
         <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>406</v>
@@ -4951,13 +4951,13 @@
         <v>436813</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4972,13 @@
         <v>502440</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>395</v>
@@ -4987,13 +4987,13 @@
         <v>417097</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>865</v>
@@ -5002,13 +5002,13 @@
         <v>919537</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5023,13 @@
         <v>609125</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -5038,13 +5038,13 @@
         <v>565242</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>1110</v>
@@ -5053,13 +5053,13 @@
         <v>1174367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5074,13 @@
         <v>342385</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H15" s="7">
         <v>318</v>
@@ -5089,13 +5089,13 @@
         <v>347724</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M15" s="7">
         <v>643</v>
@@ -5104,13 +5104,13 @@
         <v>690108</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5125,13 @@
         <v>247678</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>205</v>
@@ -5140,13 +5140,13 @@
         <v>220079</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -5295,7 +5295,7 @@
         <v>132987</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>342</v>
@@ -5385,10 +5385,10 @@
         <v>356</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -5397,13 +5397,13 @@
         <v>105363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -5412,13 +5412,13 @@
         <v>188826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5433,13 @@
         <v>43427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5448,13 +5448,13 @@
         <v>48288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -5463,13 +5463,13 @@
         <v>91715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5588,13 @@
         <v>42076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5603,13 +5603,13 @@
         <v>26374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -5672,10 +5672,10 @@
         <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5690,13 @@
         <v>883063</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>821</v>
@@ -5705,13 +5705,13 @@
         <v>875796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>1649</v>
@@ -5720,13 +5720,13 @@
         <v>1758858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5741,13 @@
         <v>973885</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>1018</v>
@@ -5756,13 +5756,13 @@
         <v>1092261</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>1939</v>
@@ -5771,13 +5771,13 @@
         <v>2066145</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5792,13 @@
         <v>605461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>620</v>
@@ -5807,13 +5807,13 @@
         <v>678135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>1188</v>
@@ -5822,13 +5822,13 @@
         <v>1283596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>436717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H30" s="7">
         <v>410</v>
@@ -5858,13 +5858,13 @@
         <v>440685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M30" s="7">
         <v>818</v>
@@ -5873,13 +5873,13 @@
         <v>877402</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,7 +5935,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +5954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D473E980-FFC2-4003-8857-E6A4AC2A50EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7793948B-3372-4B97-9E28-178F05C432C7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5971,7 +5971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6078,13 +6078,13 @@
         <v>1957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6093,13 +6093,13 @@
         <v>3446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6108,13 +6108,13 @@
         <v>5403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6129,13 @@
         <v>72869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -6144,13 +6144,13 @@
         <v>76217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -6159,13 +6159,13 @@
         <v>149087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6180,13 @@
         <v>125088</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>436</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -6195,13 +6195,13 @@
         <v>169912</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>278</v>
@@ -6210,13 +6210,13 @@
         <v>295000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6231,13 @@
         <v>192661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -6246,13 +6246,13 @@
         <v>245847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -6261,13 +6261,13 @@
         <v>438509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6282,13 @@
         <v>204346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -6297,13 +6297,13 @@
         <v>273831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -6312,13 +6312,13 @@
         <v>478177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>460</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6333,13 @@
         <v>150378</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H9" s="7">
         <v>198</v>
@@ -6348,13 +6348,13 @@
         <v>219216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -6363,13 +6363,13 @@
         <v>369594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6437,13 @@
         <v>19100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6455,10 +6455,10 @@
         <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6467,13 +6467,13 @@
         <v>38772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,10 +6491,10 @@
         <v>190</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6503,13 +6503,13 @@
         <v>216336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -6518,13 +6518,13 @@
         <v>445752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6539,13 @@
         <v>508519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H13" s="7">
         <v>405</v>
@@ -6554,13 +6554,13 @@
         <v>421328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>887</v>
@@ -6569,13 +6569,13 @@
         <v>929847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6590,13 @@
         <v>595606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6605,13 +6605,13 @@
         <v>634012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -6620,13 +6620,13 @@
         <v>1229618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6641,13 @@
         <v>445867</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H15" s="7">
         <v>419</v>
@@ -6656,13 +6656,13 @@
         <v>431421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>504</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>836</v>
@@ -6671,13 +6671,13 @@
         <v>877287</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6692,13 @@
         <v>259764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -6707,13 +6707,13 @@
         <v>255036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -6722,13 +6722,13 @@
         <v>514800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6796,13 @@
         <v>23850</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>523</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -6811,13 +6811,13 @@
         <v>18556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>518</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -6826,13 +6826,13 @@
         <v>42406</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>523</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6847,13 @@
         <v>157679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -6862,13 +6862,13 @@
         <v>151026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -6877,13 +6877,13 @@
         <v>308704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6898,13 @@
         <v>183715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -6913,13 +6913,13 @@
         <v>176884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>341</v>
@@ -6928,13 +6928,13 @@
         <v>360599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>537</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6949,13 @@
         <v>120557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -6964,13 +6964,13 @@
         <v>124632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>403</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6979,13 +6979,13 @@
         <v>245190</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>546</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +7000,13 @@
         <v>40126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7015,13 +7015,13 @@
         <v>47032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>551</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -7030,13 +7030,13 @@
         <v>87158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7051,13 @@
         <v>19053</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -7066,13 +7066,13 @@
         <v>29946</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -7081,13 +7081,13 @@
         <v>48998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>563</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,10 +7158,10 @@
         <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -7170,13 +7170,13 @@
         <v>41673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -7185,13 +7185,13 @@
         <v>86580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>570</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7206,13 @@
         <v>459964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>573</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>414</v>
@@ -7221,28 +7221,28 @@
         <v>443579</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>842</v>
       </c>
       <c r="N26" s="7">
-        <v>903543</v>
+        <v>903544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7257,13 @@
         <v>817321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="H27" s="7">
         <v>725</v>
@@ -7311,10 +7311,10 @@
         <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>949</v>
@@ -7323,28 +7323,28 @@
         <v>1004492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>411</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>1830</v>
       </c>
       <c r="N28" s="7">
-        <v>1913316</v>
+        <v>1913317</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,13 +7359,13 @@
         <v>690339</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="H29" s="7">
         <v>715</v>
@@ -7374,13 +7374,13 @@
         <v>752285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>1375</v>
@@ -7389,13 +7389,13 @@
         <v>1442623</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7410,13 @@
         <v>429194</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>470</v>
@@ -7425,13 +7425,13 @@
         <v>504198</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>606</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>607</v>
+        <v>274</v>
       </c>
       <c r="M30" s="7">
         <v>868</v>
@@ -7440,13 +7440,13 @@
         <v>933392</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>396</v>
+        <v>606</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>513</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
         <v>6499</v>
       </c>
       <c r="N31" s="7">
-        <v>6864900</v>
+        <v>6864901</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7521,7 +7521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A949A-8741-4546-AF87-11D33101789D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B66E9A-D709-43A2-9AC9-3EED0E38F95A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7538,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7645,13 +7645,13 @@
         <v>4631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>610</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -7660,13 +7660,13 @@
         <v>11394</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7675,13 +7675,13 @@
         <v>16024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>615</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7696,13 @@
         <v>87422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>615</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>617</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>141</v>
@@ -7711,13 +7711,13 @@
         <v>86583</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -7726,13 +7726,13 @@
         <v>174005</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7747,13 @@
         <v>101256</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="H6" s="7">
         <v>298</v>
@@ -7762,13 +7762,13 @@
         <v>168273</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="M6" s="7">
         <v>437</v>
@@ -7777,13 +7777,13 @@
         <v>269528</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7798,13 @@
         <v>191795</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="H7" s="7">
         <v>572</v>
@@ -7813,13 +7813,13 @@
         <v>330447</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="M7" s="7">
         <v>828</v>
@@ -7828,13 +7828,13 @@
         <v>522242</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7849,13 @@
         <v>99153</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H8" s="7">
         <v>270</v>
@@ -7864,13 +7864,13 @@
         <v>163677</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="M8" s="7">
         <v>385</v>
@@ -7879,13 +7879,13 @@
         <v>262830</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7900,13 @@
         <v>46437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>649</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -7918,10 +7918,10 @@
         <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -7930,13 +7930,13 @@
         <v>108404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,13 +8004,13 @@
         <v>38805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -8019,13 +8019,13 @@
         <v>23527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>660</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>661</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -8034,13 +8034,13 @@
         <v>62332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>658</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8055,13 @@
         <v>441047</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>662</v>
       </c>
       <c r="H12" s="7">
         <v>623</v>
@@ -8070,13 +8070,13 @@
         <v>539763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M12" s="7">
         <v>1039</v>
@@ -8085,13 +8085,13 @@
         <v>980810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>683688</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="H13" s="7">
         <v>890</v>
@@ -8121,13 +8121,13 @@
         <v>639615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>676</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>1565</v>
@@ -8136,13 +8136,13 @@
         <v>1323303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8157,13 @@
         <v>694458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H14" s="7">
         <v>918</v>
@@ -8172,13 +8172,13 @@
         <v>679214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>681</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M14" s="7">
         <v>1501</v>
@@ -8187,13 +8187,13 @@
         <v>1373672</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,10 +8211,10 @@
         <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>688</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H15" s="7">
         <v>322</v>
@@ -8223,13 +8223,13 @@
         <v>237936</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M15" s="7">
         <v>520</v>
@@ -8238,13 +8238,13 @@
         <v>455702</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8259,13 @@
         <v>61067</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -8274,13 +8274,13 @@
         <v>107364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -8289,13 +8289,13 @@
         <v>168431</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8363,13 @@
         <v>40261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -8378,13 +8378,13 @@
         <v>33558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>703</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -8393,13 +8393,13 @@
         <v>73820</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8414,13 @@
         <v>305671</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -8429,13 +8429,13 @@
         <v>306693</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="M19" s="7">
         <v>788</v>
@@ -8444,13 +8444,13 @@
         <v>612365</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8465,13 @@
         <v>230891</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -8480,13 +8480,13 @@
         <v>238216</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="M20" s="7">
         <v>539</v>
@@ -8495,13 +8495,13 @@
         <v>469107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8516,13 @@
         <v>74337</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -8531,13 +8531,13 @@
         <v>87981</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>733</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -8546,13 +8546,13 @@
         <v>162318</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8567,13 @@
         <v>15219</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>738</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8582,13 +8582,13 @@
         <v>26474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>740</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -8597,13 +8597,13 @@
         <v>41693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8618,13 @@
         <v>2901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>742</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8633,13 +8633,13 @@
         <v>10647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>747</v>
+        <v>182</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -8651,10 +8651,10 @@
         <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,10 +8725,10 @@
         <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="H25" s="7">
         <v>101</v>
@@ -8737,13 +8737,13 @@
         <v>68479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -8752,7 +8752,7 @@
         <v>152176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>752</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>753</v>
@@ -8776,10 +8776,10 @@
         <v>754</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>1216</v>
@@ -8788,13 +8788,13 @@
         <v>933039</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>2073</v>
@@ -8803,7 +8803,7 @@
         <v>1767180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>758</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>759</v>
@@ -8839,7 +8839,7 @@
         <v>1046104</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>764</v>
@@ -8854,10 +8854,10 @@
         <v>2061938</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>767</v>
@@ -8875,28 +8875,28 @@
         <v>960590</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="H28" s="7">
         <v>1606</v>
       </c>
       <c r="I28" s="7">
-        <v>1097641</v>
+        <v>1097642</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>772</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M28" s="7">
         <v>2515</v>
@@ -8926,13 +8926,13 @@
         <v>332138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>777</v>
       </c>
       <c r="H29" s="7">
         <v>622</v>
@@ -8941,10 +8941,10 @@
         <v>428086</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>779</v>
@@ -8962,7 +8962,7 @@
         <v>781</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>573</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8977,13 @@
         <v>110405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H30" s="7">
         <v>239</v>
@@ -8992,13 +8992,13 @@
         <v>179979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M30" s="7">
         <v>367</v>
@@ -9007,13 +9007,13 @@
         <v>290384</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>789</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,7 +9040,7 @@
         <v>5298</v>
       </c>
       <c r="I31" s="7">
-        <v>3753328</v>
+        <v>3753329</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P71-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEB890D-9412-4D42-853F-3A908F60588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCA7D8E-B64A-4203-B0FF-225E8A9A5547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27EE495E-3B45-4408-8151-7626BB635072}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E302965-B68C-4E4A-B669-B1DEE6522EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="778">
   <si>
     <t>Población según como llegan a fin de mes en la actualidad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -80,2295 +80,2262 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Con facilidad</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna facilidad</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna dificultad</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>Con dificultad</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>Con mucha dificultad</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Con facilidad</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna facilidad</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna dificultad</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>Con dificultad</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Con mucha dificultad</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2015 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
     <t>11,19%</t>
   </si>
   <si>
@@ -2385,9 +2352,6 @@
   </si>
   <si>
     <t>9,88%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -2820,7 +2784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C0EAA-D98C-4926-9460-9E564EBC67F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AB0A-F864-4EFA-8C06-A01376EE1C75}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3333,13 +3297,13 @@
         <v>23320</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3318,13 @@
         <v>180473</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -3369,13 +3333,13 @@
         <v>141503</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -3384,13 +3348,13 @@
         <v>321976</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3369,13 @@
         <v>646018</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -3420,13 +3384,13 @@
         <v>517357</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>1142</v>
@@ -3540,10 +3504,10 @@
         <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3522,13 @@
         <v>73169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3573,13 +3537,13 @@
         <v>135924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -3588,13 +3552,13 @@
         <v>209093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,7 +3600,7 @@
         <v>3158</v>
       </c>
       <c r="N17" s="7">
-        <v>3235751</v>
+        <v>3235750</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -3650,7 +3614,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3662,13 +3626,13 @@
         <v>19818</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3677,13 +3641,13 @@
         <v>11768</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3692,13 +3656,13 @@
         <v>31586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3677,13 @@
         <v>160653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3728,13 +3692,13 @@
         <v>120134</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -3743,13 +3707,13 @@
         <v>280787</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3728,13 @@
         <v>214908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -3779,13 +3743,13 @@
         <v>191645</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -3794,13 +3758,13 @@
         <v>406553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3779,13 @@
         <v>113649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -3830,13 +3794,13 @@
         <v>89569</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>190</v>
@@ -3845,13 +3809,13 @@
         <v>203218</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3830,13 @@
         <v>27606</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3881,13 +3845,13 @@
         <v>33959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -4024,10 +3988,10 @@
         <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -4036,13 +4000,13 @@
         <v>23055</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -4051,13 +4015,13 @@
         <v>58574</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,10 +4192,10 @@
         <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>531</v>
@@ -4240,13 +4204,13 @@
         <v>551844</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>940</v>
@@ -4255,13 +4219,13 @@
         <v>962433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85078975-DAB0-4D68-8572-69B98CBF69EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633508B3-5425-41B8-883F-F5728CDC5EC3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4526,13 +4490,13 @@
         <v>6214</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4541,13 +4505,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4526,13 @@
         <v>76137</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -4577,13 +4541,13 @@
         <v>97240</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4592,13 +4556,13 @@
         <v>173377</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4577,13 @@
         <v>213549</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
@@ -4628,13 +4592,13 @@
         <v>321765</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>500</v>
@@ -4643,13 +4607,13 @@
         <v>535314</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4628,13 @@
         <v>281295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -4679,13 +4643,13 @@
         <v>421656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>658</v>
@@ -4694,13 +4658,13 @@
         <v>702952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4679,13 @@
         <v>219650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
@@ -4730,13 +4694,13 @@
         <v>282123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>463</v>
@@ -4745,13 +4709,13 @@
         <v>501773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4730,13 @@
         <v>174370</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>187</v>
@@ -4781,13 +4745,13 @@
         <v>201362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>352</v>
@@ -4796,13 +4760,13 @@
         <v>375732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4834,13 @@
         <v>15562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4885,10 +4849,10 @@
         <v>5279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -4900,13 +4864,13 @@
         <v>20841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4885,13 @@
         <v>241648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -4939,10 +4903,10 @@
         <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>406</v>
@@ -4951,13 +4915,13 @@
         <v>436813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4936,13 @@
         <v>502440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>395</v>
@@ -4987,13 +4951,13 @@
         <v>417097</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>865</v>
@@ -5002,13 +4966,13 @@
         <v>919537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4987,13 @@
         <v>609125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -5038,13 +5002,13 @@
         <v>565242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1110</v>
@@ -5053,13 +5017,13 @@
         <v>1174367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5038,13 @@
         <v>342385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>318</v>
@@ -5089,13 +5053,13 @@
         <v>347724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M15" s="7">
         <v>643</v>
@@ -5104,13 +5068,13 @@
         <v>690108</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5089,13 @@
         <v>247678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>205</v>
@@ -5140,13 +5104,13 @@
         <v>220079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -5155,13 +5119,13 @@
         <v>467757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,7 +5181,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5229,13 +5193,13 @@
         <v>23434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5244,13 +5208,13 @@
         <v>14881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5259,13 +5223,13 @@
         <v>38315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5244,13 @@
         <v>143162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -5295,13 +5259,13 @@
         <v>132987</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -5310,13 +5274,13 @@
         <v>276149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5295,13 @@
         <v>167073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -5346,13 +5310,13 @@
         <v>136934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -5361,13 +5325,13 @@
         <v>304007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5346,13 @@
         <v>83464</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -5397,13 +5361,13 @@
         <v>105363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -5412,13 +5376,13 @@
         <v>188826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5397,13 @@
         <v>43427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5448,13 +5412,13 @@
         <v>48288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -5463,13 +5427,13 @@
         <v>91715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5448,13 @@
         <v>14669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5499,13 +5463,13 @@
         <v>19244</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -5514,13 +5478,13 @@
         <v>33913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5552,13 @@
         <v>42076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5603,13 +5567,13 @@
         <v>26374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -5618,13 +5582,13 @@
         <v>68450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5603,13 @@
         <v>460947</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>387</v>
@@ -5654,13 +5618,13 @@
         <v>425392</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>812</v>
@@ -5669,13 +5633,13 @@
         <v>886339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>112</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5654,13 @@
         <v>883063</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H27" s="7">
         <v>821</v>
@@ -5705,13 +5669,13 @@
         <v>875796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="M27" s="7">
         <v>1649</v>
@@ -5720,13 +5684,13 @@
         <v>1758858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5705,13 @@
         <v>973885</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H28" s="7">
         <v>1018</v>
@@ -5756,13 +5720,13 @@
         <v>1092261</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M28" s="7">
         <v>1939</v>
@@ -5771,13 +5735,13 @@
         <v>2066145</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5756,13 @@
         <v>605461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H29" s="7">
         <v>620</v>
@@ -5807,13 +5771,13 @@
         <v>678135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>1188</v>
@@ -5822,13 +5786,13 @@
         <v>1283596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5807,13 @@
         <v>436717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>410</v>
@@ -5858,13 +5822,13 @@
         <v>440685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>818</v>
@@ -5873,13 +5837,13 @@
         <v>877402</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7793948B-3372-4B97-9E28-178F05C432C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30AE0-3138-4AE7-9579-BA5E8A16F914}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5971,7 +5935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6078,13 +6042,13 @@
         <v>1957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6093,13 +6057,13 @@
         <v>3446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6108,13 +6072,13 @@
         <v>5403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6093,13 @@
         <v>72869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -6144,13 +6108,13 @@
         <v>76217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -6159,13 +6123,13 @@
         <v>149087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6144,13 @@
         <v>125088</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -6195,13 +6159,13 @@
         <v>169912</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>278</v>
@@ -6210,13 +6174,13 @@
         <v>295000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6195,13 @@
         <v>192661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -6246,13 +6210,13 @@
         <v>245847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -6261,13 +6225,13 @@
         <v>438509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6246,13 @@
         <v>204346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -6297,13 +6261,13 @@
         <v>273831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -6312,13 +6276,13 @@
         <v>478177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6297,13 @@
         <v>150378</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>198</v>
@@ -6348,13 +6312,13 @@
         <v>219216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -6363,13 +6327,13 @@
         <v>369594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6401,13 @@
         <v>19100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>474</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6452,13 +6416,13 @@
         <v>19672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6467,13 +6431,13 @@
         <v>38772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,10 +6455,10 @@
         <v>190</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6503,13 +6467,13 @@
         <v>216336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -6518,13 +6482,13 @@
         <v>445752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6503,13 @@
         <v>508519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>405</v>
@@ -6554,13 +6518,13 @@
         <v>421328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M13" s="7">
         <v>887</v>
@@ -6569,13 +6533,13 @@
         <v>929847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6554,13 @@
         <v>595606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6605,13 +6569,13 @@
         <v>634012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -6620,13 +6584,13 @@
         <v>1229618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6605,13 @@
         <v>445867</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>419</v>
@@ -6656,28 +6620,28 @@
         <v>431421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>265</v>
+        <v>492</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="M15" s="7">
         <v>836</v>
       </c>
       <c r="N15" s="7">
-        <v>877287</v>
+        <v>877288</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6656,13 @@
         <v>259764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -6707,13 +6671,13 @@
         <v>255036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -6722,13 +6686,13 @@
         <v>514800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,7 +6734,7 @@
         <v>3833</v>
       </c>
       <c r="N17" s="7">
-        <v>4036076</v>
+        <v>4036077</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -6784,7 +6748,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6796,13 +6760,13 @@
         <v>23850</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -6811,13 +6775,13 @@
         <v>18556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>508</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -6826,13 +6790,13 @@
         <v>42406</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6811,13 @@
         <v>157679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -6862,13 +6826,13 @@
         <v>151026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -6877,13 +6841,13 @@
         <v>308704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6862,13 @@
         <v>183715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -6913,13 +6877,13 @@
         <v>176884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M20" s="7">
         <v>341</v>
@@ -6928,13 +6892,13 @@
         <v>360599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6913,13 @@
         <v>120557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>547</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -6964,13 +6928,13 @@
         <v>124632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>548</v>
+        <v>159</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>247</v>
+        <v>532</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6979,13 +6943,13 @@
         <v>245190</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>535</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +6964,13 @@
         <v>40126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7015,13 +6979,13 @@
         <v>47032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -7030,13 +6994,13 @@
         <v>87158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7015,13 @@
         <v>19053</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -7066,13 +7030,13 @@
         <v>29946</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -7081,13 +7045,13 @@
         <v>48998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7119,13 @@
         <v>44907</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -7170,13 +7134,13 @@
         <v>41673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -7185,13 +7149,13 @@
         <v>86580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7170,13 @@
         <v>459964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="H26" s="7">
         <v>414</v>
@@ -7221,13 +7185,13 @@
         <v>443579</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>842</v>
@@ -7236,13 +7200,13 @@
         <v>903544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7221,13 @@
         <v>817321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="H27" s="7">
         <v>725</v>
@@ -7272,13 +7236,13 @@
         <v>768124</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="M27" s="7">
         <v>1506</v>
@@ -7287,13 +7251,13 @@
         <v>1585445</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,13 +7272,13 @@
         <v>908825</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="H28" s="7">
         <v>949</v>
@@ -7323,13 +7287,13 @@
         <v>1004492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>581</v>
       </c>
       <c r="M28" s="7">
         <v>1830</v>
@@ -7338,13 +7302,13 @@
         <v>1913317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,13 +7323,13 @@
         <v>690339</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>715</v>
@@ -7374,13 +7338,13 @@
         <v>752285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>35</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>1375</v>
@@ -7389,13 +7353,13 @@
         <v>1442623</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7374,13 @@
         <v>429194</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>286</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>470</v>
@@ -7425,13 +7389,13 @@
         <v>504198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>868</v>
@@ -7440,13 +7404,13 @@
         <v>933392</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,7 +7485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B66E9A-D709-43A2-9AC9-3EED0E38F95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F04E3-3330-4DFE-BBBA-58454D79EA19}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7538,7 +7502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7645,13 +7609,13 @@
         <v>4631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>601</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -7660,13 +7624,13 @@
         <v>11394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7675,10 +7639,10 @@
         <v>16024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>168</v>
@@ -7696,13 +7660,13 @@
         <v>87422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>507</v>
+        <v>609</v>
       </c>
       <c r="H5" s="7">
         <v>141</v>
@@ -7711,13 +7675,13 @@
         <v>86583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>617</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -7726,13 +7690,13 @@
         <v>174005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7711,13 @@
         <v>101256</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H6" s="7">
         <v>298</v>
@@ -7762,13 +7726,13 @@
         <v>168273</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="M6" s="7">
         <v>437</v>
@@ -7777,13 +7741,13 @@
         <v>269528</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>628</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>629</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7762,13 @@
         <v>191795</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H7" s="7">
         <v>572</v>
@@ -7813,13 +7777,13 @@
         <v>330447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="M7" s="7">
         <v>828</v>
@@ -7828,13 +7792,13 @@
         <v>522242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7813,13 @@
         <v>99153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>632</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H8" s="7">
         <v>270</v>
@@ -7864,13 +7828,13 @@
         <v>163677</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M8" s="7">
         <v>385</v>
@@ -7879,13 +7843,13 @@
         <v>262830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7864,13 @@
         <v>46437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>640</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>641</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>647</v>
+        <v>541</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -7915,13 +7879,13 @@
         <v>61967</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -7930,13 +7894,13 @@
         <v>108404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,13 +7968,13 @@
         <v>38805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -8019,13 +7983,13 @@
         <v>23527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>479</v>
+        <v>651</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>652</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -8034,13 +7998,13 @@
         <v>62332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8019,13 @@
         <v>441047</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H12" s="7">
         <v>623</v>
@@ -8070,13 +8034,13 @@
         <v>539763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M12" s="7">
         <v>1039</v>
@@ -8085,13 +8049,13 @@
         <v>980810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8070,13 @@
         <v>683688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H13" s="7">
         <v>890</v>
@@ -8121,13 +8085,13 @@
         <v>639615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>673</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>669</v>
       </c>
       <c r="M13" s="7">
         <v>1565</v>
@@ -8136,13 +8100,13 @@
         <v>1323303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8121,13 @@
         <v>694458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H14" s="7">
         <v>918</v>
@@ -8172,13 +8136,13 @@
         <v>679214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="M14" s="7">
         <v>1501</v>
@@ -8187,13 +8151,13 @@
         <v>1373672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,10 +8175,10 @@
         <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H15" s="7">
         <v>322</v>
@@ -8223,13 +8187,13 @@
         <v>237936</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M15" s="7">
         <v>520</v>
@@ -8238,13 +8202,13 @@
         <v>455702</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8223,13 @@
         <v>61067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -8274,13 +8238,13 @@
         <v>107364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>694</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -8289,13 +8253,13 @@
         <v>168431</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>699</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8315,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8363,13 +8327,13 @@
         <v>40261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>565</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -8378,13 +8342,13 @@
         <v>33558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>705</v>
+        <v>540</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -8393,13 +8357,13 @@
         <v>73820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>706</v>
+        <v>538</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8378,13 @@
         <v>305671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -8429,13 +8393,13 @@
         <v>306693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="M19" s="7">
         <v>788</v>
@@ -8444,13 +8408,13 @@
         <v>612365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8429,13 @@
         <v>230891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -8480,13 +8444,13 @@
         <v>238216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>722</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="M20" s="7">
         <v>539</v>
@@ -8495,13 +8459,13 @@
         <v>469107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8480,13 @@
         <v>74337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>727</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -8531,13 +8495,13 @@
         <v>87981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -8546,13 +8510,13 @@
         <v>162318</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8531,13 @@
         <v>15219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8582,13 +8546,13 @@
         <v>26474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -8597,13 +8561,13 @@
         <v>41693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8582,13 @@
         <v>2901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8633,13 +8597,13 @@
         <v>10647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -8648,13 +8612,13 @@
         <v>13548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>746</v>
+        <v>464</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8686,13 @@
         <v>83697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="H25" s="7">
         <v>101</v>
@@ -8737,13 +8701,13 @@
         <v>68479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>750</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -8752,13 +8716,13 @@
         <v>152176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8737,13 @@
         <v>834140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="H26" s="7">
         <v>1216</v>
@@ -8788,13 +8752,13 @@
         <v>933039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="M26" s="7">
         <v>2073</v>
@@ -8803,13 +8767,13 @@
         <v>1767180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>758</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8788,13 @@
         <v>1015834</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H27" s="7">
         <v>1514</v>
@@ -8839,13 +8803,13 @@
         <v>1046104</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>764</v>
+        <v>245</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="M27" s="7">
         <v>2541</v>
@@ -8854,13 +8818,13 @@
         <v>2061938</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>304</v>
+        <v>754</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8839,13 @@
         <v>960590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>757</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="H28" s="7">
         <v>1606</v>
@@ -8890,13 +8854,13 @@
         <v>1097642</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>772</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>2515</v>
@@ -8905,13 +8869,13 @@
         <v>2058232</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>774</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8890,13 @@
         <v>332138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="H29" s="7">
         <v>622</v>
@@ -8941,13 +8905,13 @@
         <v>428086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="M29" s="7">
         <v>949</v>
@@ -8956,13 +8920,13 @@
         <v>760225</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>782</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8941,13 @@
         <v>110405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="H30" s="7">
         <v>239</v>
@@ -8995,10 +8959,10 @@
         <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="M30" s="7">
         <v>367</v>
@@ -9007,13 +8971,13 @@
         <v>290384</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P71-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCA7D8E-B64A-4203-B0FF-225E8A9A5547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C666AF04-FBC5-4EDC-9EB4-FD785D8D8D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E302965-B68C-4E4A-B669-B1DEE6522EDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B27DF6E-37AB-44D7-BCD0-415FA4F2800C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="790">
   <si>
     <t>Población según como llegan a fin de mes en la actualidad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -80,2299 +80,2335 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Con facilidad</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna facilidad</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna dificultad</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>Con dificultad</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>Con mucha dificultad</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Con facilidad</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna facilidad</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna dificultad</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>Con dificultad</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>Con mucha dificultad</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>Población según como llegan a fin de mes en la actualidad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AB0A-F864-4EFA-8C06-A01376EE1C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1709DECB-B599-463D-ADA8-50861F714D76}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3285,10 +3321,10 @@
         <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -3297,13 +3333,13 @@
         <v>23320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3354,13 @@
         <v>180473</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -3333,13 +3369,13 @@
         <v>141503</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -3348,13 +3384,13 @@
         <v>321976</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3405,13 @@
         <v>646018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -3384,13 +3420,13 @@
         <v>517357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1142</v>
@@ -3399,13 +3435,13 @@
         <v>1163375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,10 +3456,10 @@
         <v>590606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>99</v>
@@ -3555,10 +3591,10 @@
         <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3650,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3662,13 @@
         <v>19818</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3641,13 +3677,13 @@
         <v>11768</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3656,13 +3692,13 @@
         <v>31586</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3713,13 @@
         <v>160653</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3692,13 +3728,13 @@
         <v>120134</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -3707,13 +3743,13 @@
         <v>280787</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3764,13 @@
         <v>214908</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -3743,13 +3779,13 @@
         <v>191645</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -3758,7 +3794,7 @@
         <v>406553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>149</v>
@@ -3797,10 +3833,10 @@
         <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>190</v>
@@ -3809,13 +3845,13 @@
         <v>203218</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3866,13 @@
         <v>27606</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3845,13 +3881,13 @@
         <v>33959</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3860,13 +3896,13 @@
         <v>61565</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3917,13 @@
         <v>10066</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3896,13 +3932,13 @@
         <v>22555</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -3911,13 +3947,13 @@
         <v>32622</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,10 +4021,10 @@
         <v>35519</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>178</v>
@@ -4006,7 +4042,7 @@
         <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -4015,10 +4051,10 @@
         <v>58574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>183</v>
@@ -4225,7 +4261,7 @@
         <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4276,13 @@
         <v>173552</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>354</v>
@@ -4255,13 +4291,13 @@
         <v>370489</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>519</v>
@@ -4270,13 +4306,13 @@
         <v>544042</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4368,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633508B3-5425-41B8-883F-F5728CDC5EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F8DE88-8C31-4A7B-8D31-07EA26FA8DCC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4475,13 +4511,13 @@
         <v>3080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4490,13 +4526,13 @@
         <v>6214</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4505,13 +4541,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4562,13 @@
         <v>76137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -4541,13 +4577,13 @@
         <v>97240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4556,13 +4592,13 @@
         <v>173377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4613,13 @@
         <v>213549</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
@@ -4592,13 +4628,13 @@
         <v>321765</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>500</v>
@@ -4607,13 +4643,13 @@
         <v>535314</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4664,13 @@
         <v>281295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -4643,13 +4679,13 @@
         <v>421656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>658</v>
@@ -4658,13 +4694,13 @@
         <v>702952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4715,13 @@
         <v>219650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>260</v>
@@ -4694,13 +4730,13 @@
         <v>282123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>463</v>
@@ -4709,13 +4745,13 @@
         <v>501773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4766,13 @@
         <v>174370</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>187</v>
@@ -4745,13 +4781,13 @@
         <v>201362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>352</v>
@@ -4760,13 +4796,13 @@
         <v>375732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4870,13 @@
         <v>15562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4849,13 +4885,13 @@
         <v>5279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4864,13 +4900,13 @@
         <v>20841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4921,13 @@
         <v>241648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -4903,10 +4939,10 @@
         <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>406</v>
@@ -4915,13 +4951,13 @@
         <v>436813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4972,13 @@
         <v>502440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>395</v>
@@ -4951,13 +4987,13 @@
         <v>417097</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>865</v>
@@ -4966,13 +5002,13 @@
         <v>919537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5023,13 @@
         <v>609125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -5002,13 +5038,13 @@
         <v>565242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>1110</v>
@@ -5017,10 +5053,10 @@
         <v>1174367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>44</v>
@@ -5038,13 +5074,13 @@
         <v>342385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H15" s="7">
         <v>318</v>
@@ -5053,13 +5089,13 @@
         <v>347724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M15" s="7">
         <v>643</v>
@@ -5068,13 +5104,13 @@
         <v>690108</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5125,13 @@
         <v>247678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>205</v>
@@ -5104,13 +5140,13 @@
         <v>220079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -5119,13 +5155,13 @@
         <v>467757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5217,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5193,13 +5229,13 @@
         <v>23434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5208,13 +5244,13 @@
         <v>14881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5223,13 +5259,13 @@
         <v>38315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5280,13 @@
         <v>143162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -5259,13 +5295,13 @@
         <v>132987</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -5274,13 +5310,13 @@
         <v>276149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5331,13 @@
         <v>167073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -5310,13 +5346,13 @@
         <v>136934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -5325,13 +5361,13 @@
         <v>304007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5382,13 @@
         <v>83464</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -5361,13 +5397,13 @@
         <v>105363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -5376,13 +5412,13 @@
         <v>188826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5433,13 @@
         <v>43427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5412,13 +5448,13 @@
         <v>48288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -5427,13 +5463,13 @@
         <v>91715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5484,13 @@
         <v>14669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5463,13 +5499,13 @@
         <v>19244</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -5478,13 +5514,13 @@
         <v>33913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5588,13 @@
         <v>42076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -5567,13 +5603,13 @@
         <v>26374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -5582,13 +5618,13 @@
         <v>68450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5639,13 @@
         <v>460947</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H26" s="7">
         <v>387</v>
@@ -5618,13 +5654,13 @@
         <v>425392</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="M26" s="7">
         <v>812</v>
@@ -5633,13 +5669,13 @@
         <v>886339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5690,13 @@
         <v>883063</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="H27" s="7">
         <v>821</v>
@@ -5669,13 +5705,13 @@
         <v>875796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="M27" s="7">
         <v>1649</v>
@@ -5684,13 +5720,13 @@
         <v>1758858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5741,13 @@
         <v>973885</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7">
         <v>1018</v>
@@ -5720,13 +5756,13 @@
         <v>1092261</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>1939</v>
@@ -5735,13 +5771,13 @@
         <v>2066145</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>402</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5792,13 @@
         <v>605461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>620</v>
@@ -5771,13 +5807,13 @@
         <v>678135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M29" s="7">
         <v>1188</v>
@@ -5786,13 +5822,13 @@
         <v>1283596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>409</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>411</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5843,13 @@
         <v>436717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H30" s="7">
         <v>410</v>
@@ -5822,13 +5858,13 @@
         <v>440685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M30" s="7">
         <v>818</v>
@@ -5837,13 +5873,13 @@
         <v>877402</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +5935,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5918,7 +5954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30AE0-3138-4AE7-9579-BA5E8A16F914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94C5A3E-E5DA-4FD1-ACBC-D464660199B5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5935,7 +5971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6042,13 +6078,13 @@
         <v>1957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6057,13 +6093,13 @@
         <v>3446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6072,13 +6108,13 @@
         <v>5403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6129,13 @@
         <v>72869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -6108,13 +6144,13 @@
         <v>76217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -6123,13 +6159,13 @@
         <v>149087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6180,13 @@
         <v>125088</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -6159,13 +6195,13 @@
         <v>169912</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>278</v>
@@ -6174,13 +6210,13 @@
         <v>295000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6231,13 @@
         <v>192661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -6210,13 +6246,13 @@
         <v>245847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -6225,13 +6261,13 @@
         <v>438509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6282,13 @@
         <v>204346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -6261,13 +6297,13 @@
         <v>273831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -6276,13 +6312,13 @@
         <v>478177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6333,13 @@
         <v>150378</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H9" s="7">
         <v>198</v>
@@ -6312,13 +6348,13 @@
         <v>219216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -6327,13 +6363,13 @@
         <v>369594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6437,13 @@
         <v>19100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6416,13 +6452,13 @@
         <v>19672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6431,13 +6467,13 @@
         <v>38772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,10 +6491,10 @@
         <v>190</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6467,13 +6503,13 @@
         <v>216336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -6482,13 +6518,13 @@
         <v>445752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6539,13 @@
         <v>508519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>405</v>
@@ -6518,13 +6554,13 @@
         <v>421328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>887</v>
@@ -6533,13 +6569,13 @@
         <v>929847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6590,13 @@
         <v>595606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6569,13 +6605,13 @@
         <v>634012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -6584,13 +6620,13 @@
         <v>1229618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,10 +6644,10 @@
         <v>489</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>501</v>
       </c>
       <c r="H15" s="7">
         <v>419</v>
@@ -6620,28 +6656,28 @@
         <v>431421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M15" s="7">
         <v>836</v>
       </c>
       <c r="N15" s="7">
-        <v>877288</v>
+        <v>877287</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6692,13 @@
         <v>259764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -6671,13 +6707,13 @@
         <v>255036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -6686,13 +6722,13 @@
         <v>514800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,7 +6770,7 @@
         <v>3833</v>
       </c>
       <c r="N17" s="7">
-        <v>4036077</v>
+        <v>4036076</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -6748,7 +6784,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6760,13 +6796,13 @@
         <v>23850</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>507</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -6775,13 +6811,13 @@
         <v>18556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -6790,13 +6826,13 @@
         <v>42406</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6847,13 @@
         <v>157679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>524</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -6826,13 +6862,13 @@
         <v>151026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -6841,13 +6877,13 @@
         <v>308704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6898,13 @@
         <v>183715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -6877,13 +6913,13 @@
         <v>176884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M20" s="7">
         <v>341</v>
@@ -6892,13 +6928,13 @@
         <v>360599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6949,13 @@
         <v>120557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>542</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -6928,13 +6964,13 @@
         <v>124632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>533</v>
+        <v>403</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6943,13 +6979,13 @@
         <v>245190</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +7000,13 @@
         <v>40126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -6979,13 +7015,13 @@
         <v>47032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>551</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>541</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6994,13 +7030,13 @@
         <v>87158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7051,13 @@
         <v>19053</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -7030,13 +7066,13 @@
         <v>29946</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -7045,13 +7081,13 @@
         <v>48998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7155,13 @@
         <v>44907</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -7134,13 +7170,13 @@
         <v>41673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -7149,13 +7185,13 @@
         <v>86580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>570</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7206,13 @@
         <v>459964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H26" s="7">
         <v>414</v>
@@ -7185,28 +7221,28 @@
         <v>443579</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="M26" s="7">
         <v>842</v>
       </c>
       <c r="N26" s="7">
-        <v>903544</v>
+        <v>903543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7257,13 @@
         <v>817321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H27" s="7">
         <v>725</v>
@@ -7236,13 +7272,13 @@
         <v>768124</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M27" s="7">
         <v>1506</v>
@@ -7251,13 +7287,13 @@
         <v>1585445</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7308,13 @@
         <v>908825</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
         <v>949</v>
@@ -7287,28 +7323,28 @@
         <v>1004492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
         <v>1830</v>
       </c>
       <c r="N28" s="7">
-        <v>1913317</v>
+        <v>1913316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7359,13 @@
         <v>690339</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
         <v>715</v>
@@ -7338,13 +7374,13 @@
         <v>752285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>588</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>1375</v>
@@ -7353,13 +7389,13 @@
         <v>1442623</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7410,13 @@
         <v>429194</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>470</v>
@@ -7389,13 +7425,13 @@
         <v>504198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="M30" s="7">
         <v>868</v>
@@ -7404,13 +7440,13 @@
         <v>933392</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>598</v>
+        <v>396</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,7 +7488,7 @@
         <v>6499</v>
       </c>
       <c r="N31" s="7">
-        <v>6864901</v>
+        <v>6864900</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -7466,7 +7502,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7485,7 +7521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F04E3-3330-4DFE-BBBA-58454D79EA19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CB815-510A-4CDA-BDF7-FFAB58EDBD80}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7502,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7609,13 +7645,13 @@
         <v>4631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>610</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -7624,13 +7660,13 @@
         <v>11394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>604</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7639,13 +7675,13 @@
         <v>16024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7696,13 @@
         <v>87422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>608</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="H5" s="7">
         <v>141</v>
@@ -7675,13 +7711,13 @@
         <v>86583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>619</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -7690,13 +7726,13 @@
         <v>174005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>614</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7747,13 @@
         <v>101256</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H6" s="7">
         <v>298</v>
@@ -7726,13 +7762,13 @@
         <v>168273</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>619</v>
+        <v>66</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="M6" s="7">
         <v>437</v>
@@ -7741,13 +7777,13 @@
         <v>269528</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>629</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7798,13 @@
         <v>191795</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H7" s="7">
         <v>572</v>
@@ -7777,13 +7813,13 @@
         <v>330447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="M7" s="7">
         <v>828</v>
@@ -7792,13 +7828,13 @@
         <v>522242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7849,13 @@
         <v>99153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="H8" s="7">
         <v>270</v>
@@ -7828,13 +7864,13 @@
         <v>163677</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M8" s="7">
         <v>385</v>
@@ -7843,13 +7879,13 @@
         <v>262830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7900,13 @@
         <v>46437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>641</v>
+        <v>121</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>541</v>
+        <v>650</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -7879,13 +7915,13 @@
         <v>61967</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -7894,13 +7930,13 @@
         <v>108404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +8004,13 @@
         <v>38805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -7983,13 +8019,13 @@
         <v>23527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -7998,13 +8034,13 @@
         <v>62332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>654</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8055,13 @@
         <v>441047</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>658</v>
+        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>623</v>
@@ -8034,13 +8070,13 @@
         <v>539763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M12" s="7">
         <v>1039</v>
@@ -8049,13 +8085,13 @@
         <v>980810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>663</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8106,13 @@
         <v>683688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H13" s="7">
         <v>890</v>
@@ -8085,13 +8121,13 @@
         <v>639615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>675</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M13" s="7">
         <v>1565</v>
@@ -8100,13 +8136,13 @@
         <v>1323303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8157,13 @@
         <v>694458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H14" s="7">
         <v>918</v>
@@ -8136,13 +8172,13 @@
         <v>679214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>677</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M14" s="7">
         <v>1501</v>
@@ -8151,13 +8187,13 @@
         <v>1373672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,10 +8211,10 @@
         <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H15" s="7">
         <v>322</v>
@@ -8187,13 +8223,13 @@
         <v>237936</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="M15" s="7">
         <v>520</v>
@@ -8202,13 +8238,13 @@
         <v>455702</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8259,13 @@
         <v>61067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -8238,13 +8274,13 @@
         <v>107364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>694</v>
+        <v>434</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -8253,13 +8289,13 @@
         <v>168431</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>701</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8351,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8327,13 +8363,13 @@
         <v>40261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>564</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -8342,13 +8378,13 @@
         <v>33558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>699</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>540</v>
+        <v>706</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -8357,13 +8393,13 @@
         <v>73820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,13 +8414,13 @@
         <v>305671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -8393,13 +8429,13 @@
         <v>306693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="M19" s="7">
         <v>788</v>
@@ -8408,13 +8444,13 @@
         <v>612365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,13 +8465,13 @@
         <v>230891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -8444,13 +8480,13 @@
         <v>238216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>723</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="M20" s="7">
         <v>539</v>
@@ -8459,13 +8495,13 @@
         <v>469107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,13 +8516,13 @@
         <v>74337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>728</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -8495,13 +8531,13 @@
         <v>87981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -8510,13 +8546,13 @@
         <v>162318</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>735</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>726</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8531,13 +8567,13 @@
         <v>15219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8546,13 +8582,13 @@
         <v>26474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>740</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -8561,13 +8597,13 @@
         <v>41693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,13 +8618,13 @@
         <v>2901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>734</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8597,13 +8633,13 @@
         <v>10647</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>181</v>
+        <v>747</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -8612,13 +8648,13 @@
         <v>13548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>749</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8686,13 +8722,13 @@
         <v>83697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
       <c r="H25" s="7">
         <v>101</v>
@@ -8701,13 +8737,13 @@
         <v>68479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>752</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -8716,13 +8752,13 @@
         <v>152176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>742</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8737,13 +8773,13 @@
         <v>834140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>636</v>
+        <v>755</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>1216</v>
@@ -8752,13 +8788,13 @@
         <v>933039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>758</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>747</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>2073</v>
@@ -8767,13 +8803,13 @@
         <v>1767180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,13 +8824,13 @@
         <v>1015834</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="H27" s="7">
         <v>1514</v>
@@ -8803,13 +8839,13 @@
         <v>1046104</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="M27" s="7">
         <v>2541</v>
@@ -8818,13 +8854,13 @@
         <v>2061938</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>755</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,28 +8875,28 @@
         <v>960590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H28" s="7">
         <v>1606</v>
       </c>
       <c r="I28" s="7">
-        <v>1097642</v>
+        <v>1097641</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="M28" s="7">
         <v>2515</v>
@@ -8869,13 +8905,13 @@
         <v>2058232</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>774</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,13 +8926,13 @@
         <v>332138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="H29" s="7">
         <v>622</v>
@@ -8905,13 +8941,13 @@
         <v>428086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>767</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="M29" s="7">
         <v>949</v>
@@ -8920,13 +8956,13 @@
         <v>760225</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8977,13 @@
         <v>110405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="H30" s="7">
         <v>239</v>
@@ -8956,13 +8992,13 @@
         <v>179979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="M30" s="7">
         <v>367</v>
@@ -8971,13 +9007,13 @@
         <v>290384</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>324</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,7 +9040,7 @@
         <v>5298</v>
       </c>
       <c r="I31" s="7">
-        <v>3753329</v>
+        <v>3753328</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -9033,7 +9069,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
